--- a/excel/format.xlsx
+++ b/excel/format.xlsx
@@ -21,37 +21,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>NIS</t>
-  </si>
-  <si>
-    <t>NAMA</t>
-  </si>
-  <si>
-    <t>JENIS KELAMIN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>ALAMAT</t>
   </si>
   <si>
-    <t>jsadhjahdj</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
-    <t>Bayalangu</t>
+    <t>NIM</t>
+  </si>
+  <si>
+    <t>NAMA LENGKAP</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>KEWARGANEGARAAN</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>TINGGI BADAN</t>
+  </si>
+  <si>
+    <t>BERAT BADAN</t>
+  </si>
+  <si>
+    <t>KODE POS</t>
+  </si>
+  <si>
+    <t>TMPT LAHIR</t>
+  </si>
+  <si>
+    <t>TGL LAHIR</t>
+  </si>
+  <si>
+    <t>NAMA AYAH</t>
+  </si>
+  <si>
+    <t>NAMA IBU</t>
+  </si>
+  <si>
+    <t>NO_HP</t>
+  </si>
+  <si>
+    <t>NO_HP2</t>
+  </si>
+  <si>
+    <t>INFO DARI</t>
+  </si>
+  <si>
+    <t>NAMA ASAL SEKOLAH</t>
+  </si>
+  <si>
+    <t>ALAMAT ASAL SEKOLAH</t>
+  </si>
+  <si>
+    <t>LEVEL</t>
+  </si>
+  <si>
+    <t>ID_TAHUN_AJARAN</t>
+  </si>
+  <si>
+    <t>TAHUN_MASUK</t>
+  </si>
+  <si>
+    <t>ID_KELAS</t>
+  </si>
+  <si>
+    <t>ID_DOSEN</t>
+  </si>
+  <si>
+    <t>ID_SEMESTER</t>
+  </si>
+  <si>
+    <t>Juned</t>
+  </si>
+  <si>
+    <t>juned@gmail.com</t>
+  </si>
+  <si>
+    <t>adjaksdju38</t>
+  </si>
+  <si>
+    <t>WNI</t>
+  </si>
+  <si>
+    <t>buntet</t>
+  </si>
+  <si>
+    <t>cirebon</t>
+  </si>
+  <si>
+    <t>Nasoni</t>
+  </si>
+  <si>
+    <t>Rasi</t>
+  </si>
+  <si>
+    <t>teman</t>
+  </si>
+  <si>
+    <t>Smk mekanika</t>
+  </si>
+  <si>
+    <t>Buntet Pesantren</t>
+  </si>
+  <si>
+    <t>PMB_lamah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,13 +175,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,46 +488,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="35.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
-    <col min="4" max="4" width="63.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" customWidth="1"/>
+    <col min="7" max="7" width="5.7265625" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" customWidth="1"/>
+    <col min="10" max="10" width="18.81640625" customWidth="1"/>
+    <col min="12" max="12" width="12.08984375" customWidth="1"/>
+    <col min="13" max="13" width="14.81640625" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="14.1796875" customWidth="1"/>
+    <col min="16" max="16" width="15.26953125" customWidth="1"/>
+    <col min="19" max="19" width="12.36328125" customWidth="1"/>
+    <col min="20" max="20" width="20.7265625" customWidth="1"/>
+    <col min="21" max="21" width="22.7265625" customWidth="1"/>
+    <col min="24" max="24" width="20.453125" customWidth="1"/>
+    <col min="25" max="25" width="15.90625" customWidth="1"/>
+    <col min="26" max="26" width="15.36328125" customWidth="1"/>
+    <col min="27" max="27" width="18.54296875" customWidth="1"/>
+    <col min="28" max="28" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>31231</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>338</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>33604</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2">
+        <v>383838</v>
+      </c>
+      <c r="P2">
+        <v>3928183</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>2016</v>
+      </c>
+      <c r="W2">
+        <v>13</v>
+      </c>
+      <c r="X2">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>78782</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
